--- a/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD,mm.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90317A100</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$14.16</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>OD,mm.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>Thick.,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90317A103</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14.24</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90317A106</t>
+          <t>90317A100</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14.27</t>
+          <t>$14.16</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -740,12 +652,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90317A810</t>
+          <t>90317A103</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,12 +724,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -842,12 +754,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90317A820</t>
+          <t>90317A106</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -884,12 +796,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -909,17 +821,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90317A109</t>
+          <t>90317A810</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.41</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,22 +858,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -986,17 +898,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90317A110</t>
+          <t>90317A820</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,27 +930,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1053,22 +965,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90317A830</t>
+          <t>90317A109</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1120,7 +1032,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>ASME B18.13.1M</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1130,12 +1042,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90317A112</t>
+          <t>90317A110</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1172,17 +1084,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1192,7 +1104,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>ASME B18.13.1M</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1202,12 +1114,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90317A115</t>
+          <t>90317A830</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1269,17 +1181,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90317A118</t>
+          <t>90317A112</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1341,17 +1253,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90317A121</t>
+          <t>90317A115</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1388,17 +1300,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1408,7 +1320,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90317A840</t>
+          <t>90317A118</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1460,12 +1372,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1480,7 +1392,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>JIS B 1188-D</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1490,12 +1402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90317A723</t>
+          <t>90317A121</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1542,7 +1454,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1552,7 +1464,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>JIS B 1188-D</t>
+          <t>ASME B18.13.1M</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1562,12 +1474,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90317A724</t>
+          <t>90317A840</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1594,27 +1506,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1629,22 +1541,22 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90317A725</t>
+          <t>90317A723</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1666,27 +1578,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1696,7 +1608,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>JIS B 1188-D</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1706,17 +1618,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90317A162</t>
+          <t>90317A724</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>17.73</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1738,22 +1650,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1768,22 +1680,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ISO 7045</t>
+          <t>JIS B 1188-D</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90317A165</t>
+          <t>90317A725</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,62 +1712,62 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ISO 7045</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ISO 7045</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90317A168</t>
+          <t>90317A162</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1917,17 +1829,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90317A171</t>
+          <t>90317A165</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1964,12 +1876,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1984,7 +1896,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1994,12 +1906,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90317A850</t>
+          <t>90317A168</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2056,7 +1968,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>ISO 7045</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90317A176</t>
+          <t>90317A171</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2108,12 +2020,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,17 +2045,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90317A179</t>
+          <t>90317A850</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2180,7 +2092,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2205,17 +2117,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90317A717</t>
+          <t>90317A176</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2242,22 +2154,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2277,22 +2189,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90317A198</t>
+          <t>90317A179</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2304,67 +2216,67 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90317A860</t>
+          <t>90317A717</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2396,12 +2308,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2416,7 +2328,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>JIS B 1188-D</t>
+          <t>ASME B18.13.1M</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90317A205</t>
+          <t>90317A198</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2458,22 +2370,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2493,17 +2405,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90317A208</t>
+          <t>90317A860</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2540,12 +2452,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2560,22 +2472,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>JIS B 1188-D</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90317A211</t>
+          <t>90317A205</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2602,12 +2514,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2637,17 +2549,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90317A718</t>
+          <t>90317A208</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2674,27 +2586,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2709,22 +2621,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>90317A719</t>
+          <t>90317A211</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2746,27 +2658,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2781,22 +2693,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90317A230</t>
+          <t>90317A718</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>14.82</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2858,12 +2770,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>90317A720</t>
+          <t>90317A719</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2880,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2900,7 +2812,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2925,17 +2837,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90317A721</t>
+          <t>90317A230</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2952,70 +2864,214 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>90317A720</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>90317A721</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>11.99</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>ASME B18.13.1M</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>90317A722</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>9.97</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
